--- a/table_fra.xlsx
+++ b/table_fra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>INSTANCE</t>
   </si>
@@ -40,40 +40,7 @@
     <t>CHEAPEST INSERTION</t>
   </si>
   <si>
-    <t>berlin52.tsp</t>
-  </si>
-  <si>
-    <t>burma14.tsp</t>
-  </si>
-  <si>
-    <t>ch150.tsp</t>
-  </si>
-  <si>
-    <t>d493.tsp</t>
-  </si>
-  <si>
     <t>dsj1000.tsp</t>
-  </si>
-  <si>
-    <t>eil51.tsp</t>
-  </si>
-  <si>
-    <t>gr202.tsp</t>
-  </si>
-  <si>
-    <t>gr229.tsp</t>
-  </si>
-  <si>
-    <t>kroA100.tsp</t>
-  </si>
-  <si>
-    <t>kroD100.tsp</t>
-  </si>
-  <si>
-    <t>pcb442.tsp</t>
-  </si>
-  <si>
-    <t>ulysses16.tsp</t>
   </si>
   <si>
     <t>ulysses22.tsp</t>
@@ -408,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,377 +440,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>8294</v>
-      </c>
-      <c r="C3">
-        <v>539972</v>
-      </c>
-      <c r="E3">
-        <v>8388</v>
-      </c>
-      <c r="F3">
-        <v>1547625</v>
-      </c>
-      <c r="H3">
-        <v>6667</v>
-      </c>
-      <c r="I3">
-        <v>4141739</v>
-      </c>
-      <c r="K3">
-        <v>8338</v>
-      </c>
-      <c r="L3">
-        <v>635123</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>4436</v>
-      </c>
-      <c r="C4">
-        <v>92357</v>
-      </c>
-      <c r="E4">
-        <v>4882</v>
-      </c>
-      <c r="F4">
-        <v>221551</v>
-      </c>
-      <c r="H4">
-        <v>4178</v>
-      </c>
-      <c r="I4">
-        <v>503410</v>
-      </c>
-      <c r="K4">
-        <v>2666</v>
-      </c>
-      <c r="L4">
-        <v>82879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>7454</v>
-      </c>
-      <c r="C5">
-        <v>4131737</v>
-      </c>
-      <c r="E5">
-        <v>7270</v>
-      </c>
-      <c r="F5">
-        <v>12957861</v>
-      </c>
-      <c r="H5">
-        <v>6400</v>
-      </c>
-      <c r="I5">
-        <v>33528996</v>
-      </c>
-      <c r="K5">
-        <v>7080</v>
-      </c>
-      <c r="L5">
-        <v>3729556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>38278</v>
-      </c>
-      <c r="C6">
-        <v>49689626</v>
-      </c>
-      <c r="E6">
-        <v>38596</v>
-      </c>
-      <c r="F6">
-        <v>152790459</v>
-      </c>
-      <c r="H6">
-        <v>29317</v>
-      </c>
-      <c r="I6">
-        <v>381017927</v>
-      </c>
-      <c r="K6">
-        <v>39729</v>
-      </c>
-      <c r="L6">
-        <v>49137082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>23213038</v>
-      </c>
-      <c r="C7">
-        <v>224271071</v>
-      </c>
-      <c r="E7">
-        <v>20616495</v>
-      </c>
-      <c r="F7">
-        <v>680211636</v>
-      </c>
-      <c r="H7">
-        <v>16020658</v>
-      </c>
-      <c r="I7">
-        <v>1758139100</v>
-      </c>
-      <c r="K7">
-        <v>23464919</v>
-      </c>
-      <c r="L7">
-        <v>223580353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>527</v>
-      </c>
-      <c r="C8">
-        <v>489565</v>
-      </c>
-      <c r="E8">
-        <v>451</v>
-      </c>
-      <c r="F8">
-        <v>1306327</v>
-      </c>
-      <c r="H8">
-        <v>387</v>
-      </c>
-      <c r="I8">
-        <v>4138244</v>
-      </c>
-      <c r="K8">
-        <v>482</v>
-      </c>
-      <c r="L8">
-        <v>467088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>40012</v>
-      </c>
-      <c r="C9">
-        <v>6869356</v>
-      </c>
-      <c r="E9">
-        <v>34194</v>
-      </c>
-      <c r="F9">
-        <v>21829779</v>
-      </c>
-      <c r="H9">
-        <v>26291</v>
-      </c>
-      <c r="I9">
-        <v>60214111</v>
-      </c>
-      <c r="K9">
-        <v>42155</v>
-      </c>
-      <c r="L9">
-        <v>7024292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>147026</v>
-      </c>
-      <c r="C10">
-        <v>8537200</v>
-      </c>
-      <c r="E10">
-        <v>147830</v>
-      </c>
-      <c r="F10">
-        <v>29712977</v>
-      </c>
-      <c r="H10">
-        <v>107568</v>
-      </c>
-      <c r="I10">
-        <v>78307544</v>
-      </c>
-      <c r="K10">
-        <v>150809</v>
-      </c>
-      <c r="L10">
-        <v>8915236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>23135</v>
-      </c>
-      <c r="C11">
-        <v>1712395</v>
-      </c>
-      <c r="E11">
-        <v>23497</v>
-      </c>
-      <c r="F11">
-        <v>5055974</v>
-      </c>
-      <c r="H11">
-        <v>19376</v>
-      </c>
-      <c r="I11">
-        <v>15132222</v>
-      </c>
-      <c r="K11">
-        <v>25220</v>
-      </c>
-      <c r="L11">
-        <v>1723716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>23871</v>
-      </c>
-      <c r="C12">
-        <v>1747195</v>
-      </c>
-      <c r="E12">
-        <v>23263</v>
-      </c>
-      <c r="F12">
-        <v>5177906</v>
-      </c>
-      <c r="H12">
-        <v>19148</v>
-      </c>
-      <c r="I12">
-        <v>14969604</v>
-      </c>
-      <c r="K12">
-        <v>25829</v>
-      </c>
-      <c r="L12">
-        <v>1701729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>58617</v>
-      </c>
-      <c r="C13">
-        <v>36462900</v>
-      </c>
-      <c r="E13">
-        <v>57994</v>
-      </c>
-      <c r="F13">
-        <v>120512849</v>
-      </c>
-      <c r="H13">
-        <v>47065</v>
-      </c>
-      <c r="I13">
-        <v>306469133</v>
-      </c>
-      <c r="K13">
-        <v>60278</v>
-      </c>
-      <c r="L13">
-        <v>37417900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>4779</v>
-      </c>
-      <c r="C14">
-        <v>152288</v>
-      </c>
-      <c r="E14">
-        <v>4961</v>
-      </c>
-      <c r="F14">
-        <v>187952</v>
-      </c>
-      <c r="H14">
-        <v>4258</v>
-      </c>
-      <c r="I14">
-        <v>543090</v>
-      </c>
-      <c r="K14">
-        <v>4227</v>
-      </c>
-      <c r="L14">
-        <v>70056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5198</v>
-      </c>
-      <c r="C15">
-        <v>109377</v>
-      </c>
-      <c r="E15">
-        <v>5186</v>
-      </c>
-      <c r="F15">
-        <v>306914</v>
-      </c>
-      <c r="H15">
-        <v>4224</v>
-      </c>
-      <c r="I15">
-        <v>863485</v>
-      </c>
-      <c r="K15">
-        <v>5198</v>
-      </c>
-      <c r="L15">
-        <v>120043</v>
       </c>
     </row>
   </sheetData>
